--- a/result.xlsx
+++ b/result.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$946</definedName>
+  </definedNames>
   <calcPr calcId="125725" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="978">
   <si>
     <t>关键词价格</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4525,7 +4528,7 @@
   <dimension ref="A1:C946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12128,8 +12131,8 @@
       <c r="A691" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="B691">
-        <v>200.01</v>
+      <c r="B691" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>752</v>
@@ -12139,8 +12142,8 @@
       <c r="A692" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="B692">
-        <v>200.01</v>
+      <c r="B692" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="C692" s="5" t="s">
         <v>752</v>
@@ -12150,8 +12153,8 @@
       <c r="A693" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="B693">
-        <v>200.01</v>
+      <c r="B693" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>752</v>
@@ -12172,8 +12175,8 @@
       <c r="A695" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="B695">
-        <v>200.01</v>
+      <c r="B695" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="C695" s="5" t="s">
         <v>752</v>
@@ -12183,8 +12186,8 @@
       <c r="A696" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B696">
-        <v>200.01</v>
+      <c r="B696" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>752</v>
@@ -12238,8 +12241,8 @@
       <c r="A701" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B701">
-        <v>200.01</v>
+      <c r="B701" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="C701" s="5" t="s">
         <v>752</v>
@@ -12249,8 +12252,8 @@
       <c r="A702" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="B702">
-        <v>200.01</v>
+      <c r="B702" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="C702" s="5" t="s">
         <v>752</v>
@@ -12271,8 +12274,8 @@
       <c r="A704" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B704">
-        <v>200.01</v>
+      <c r="B704" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="C704" s="5" t="s">
         <v>752</v>
@@ -13460,10 +13463,10 @@
         <v>865</v>
       </c>
       <c r="B812">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="C812" s="5" t="s">
-        <v>752</v>
+        <v>12</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -14941,6 +14944,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C946"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
